--- a/pyRevitnvn.tab/Training.panel/Training.pushbutton/Create_Grids.xlsx
+++ b/pyRevitnvn.tab/Training.panel/Training.pushbutton/Create_Grids.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit-Master\extensions\PySteelFraming.extension\PySteelFraming.tab\traning.panel\traning.pushbutton\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit\Extensions\pyRevitnvn.extension\pyRevitnvn.tab\Training.panel\Training.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFA6F1A-227D-48BE-A4C6-CF4BB874A129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0521918-4896-4DCC-9E65-EE1DF6D1765F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Y1</t>
   </si>
@@ -29,12 +29,6 @@
     <t>Y2</t>
   </si>
   <si>
-    <t>Khoang Cach (mm)</t>
-  </si>
-  <si>
-    <t>Ky Hieu Truc</t>
-  </si>
-  <si>
     <t>Chieu_Dai</t>
   </si>
   <si>
@@ -56,31 +50,25 @@
     <t>(0,10,0)</t>
   </si>
   <si>
-    <t>A6a</t>
-  </si>
-  <si>
-    <t>A7a</t>
-  </si>
-  <si>
-    <t>A8a</t>
-  </si>
-  <si>
-    <t>A9a</t>
-  </si>
-  <si>
-    <t>A1a''</t>
-  </si>
-  <si>
-    <t>A2ad</t>
-  </si>
-  <si>
-    <t>A3ak</t>
-  </si>
-  <si>
-    <t>A4aa</t>
-  </si>
-  <si>
-    <t>A5am</t>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Khoang Cach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khoang Cach </t>
+  </si>
+  <si>
+    <t>Ky Hieu Truc X</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
   </si>
 </sst>
 </file>
@@ -496,69 +484,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" activeCellId="1" sqref="F15 G12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="17.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>45000</v>
+        <v>90000</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -567,18 +558,18 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>40000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3">
         <v>2000</v>
       </c>
       <c r="C4" s="3">
-        <v>45000</v>
+        <v>90000</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -587,122 +578,28 @@
         <v>3000</v>
       </c>
       <c r="F4" s="3">
-        <v>40000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3">
         <v>4000</v>
       </c>
       <c r="C5" s="3">
-        <v>45000</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3">
+        <v>90000</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3">
         <v>3000</v>
       </c>
-      <c r="C6" s="3">
-        <v>45000</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45000</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7000</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45000</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C9" s="3">
-        <v>45000</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C10" s="3">
-        <v>45000</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
-        <v>3000</v>
-      </c>
-      <c r="C11" s="3">
-        <v>45000</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F5" s="3">
+        <v>90000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/pyRevitnvn.tab/Training.panel/Training.pushbutton/Create_Grids.xlsx
+++ b/pyRevitnvn.tab/Training.panel/Training.pushbutton/Create_Grids.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit\Extensions\pyRevitnvn.extension\pyRevitnvn.tab\Training.panel\Training.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0521918-4896-4DCC-9E65-EE1DF6D1765F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57556003-B01F-47A8-8690-89DED99729B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="dsf" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
@@ -487,7 +491,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,7 +613,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FBE73A-5958-404B-8CDB-A7FF5A185FE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4022B2-BD19-4D78-B1A3-622D425B4366}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131956B8-36EC-4E9E-806A-55D603046EFD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE2530E-208A-490C-A97D-A1661AD96B31}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -618,4 +650,30 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508863F6-1BE2-4238-ADCD-C1A8DC262672}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40AA50E-A3E9-4A59-8994-DC90C5A6C46E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pyRevitnvn.tab/Training.panel/Training.pushbutton/Create_Grids.xlsx
+++ b/pyRevitnvn.tab/Training.panel/Training.pushbutton/Create_Grids.xlsx
@@ -8,24 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit\Extensions\pyRevitnvn.extension\pyRevitnvn.tab\Training.panel\Training.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57556003-B01F-47A8-8690-89DED99729B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7AF15E-7AFE-42B9-98D6-463F815402DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dsf" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId4"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId5"/>
-    <sheet name="Sheet9" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Y1</t>
   </si>
@@ -42,37 +37,91 @@
     <t>chieu dai</t>
   </si>
   <si>
-    <t>Origin_Coordx</t>
-  </si>
-  <si>
-    <t>Origin_Coordy</t>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>Khoang Cach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khoang Cach </t>
+  </si>
+  <si>
+    <t>Ky Hieu Truc X</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>Y6</t>
+  </si>
+  <si>
+    <t>Y7</t>
+  </si>
+  <si>
+    <t>X14</t>
+  </si>
+  <si>
+    <t>X15</t>
+  </si>
+  <si>
+    <t>X16</t>
+  </si>
+  <si>
+    <t>Y8</t>
+  </si>
+  <si>
+    <t>Ocx</t>
+  </si>
+  <si>
+    <t>Ocy</t>
   </si>
   <si>
     <t>(10,0,0)</t>
   </si>
   <si>
     <t>(0,10,0)</t>
-  </si>
-  <si>
-    <t>Y3</t>
-  </si>
-  <si>
-    <t>Khoang Cach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khoang Cach </t>
-  </si>
-  <si>
-    <t>Ky Hieu Truc X</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>X2</t>
-  </si>
-  <si>
-    <t>X3</t>
   </si>
 </sst>
 </file>
@@ -488,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,26 +560,26 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -539,7 +588,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>4</v>
@@ -547,13 +596,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>90000</v>
+        <v>25000</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -562,18 +611,18 @@
         <v>0</v>
       </c>
       <c r="F3" s="3">
-        <v>90000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>2000</v>
       </c>
       <c r="C4" s="3">
-        <v>90000</v>
+        <v>25000</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -582,27 +631,215 @@
         <v>3000</v>
       </c>
       <c r="F4" s="3">
-        <v>90000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>4000</v>
       </c>
       <c r="C5" s="3">
-        <v>90000</v>
+        <v>25000</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3">
         <v>3000</v>
       </c>
       <c r="F5" s="3">
-        <v>90000</v>
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25000</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C7" s="3">
+        <v>25000</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C8" s="3">
+        <v>25000</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C9" s="3">
+        <v>25000</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C10" s="3">
+        <v>25000</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C11" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C12" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C13" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C14" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C15" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C16" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
@@ -610,70 +847,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4022B2-BD19-4D78-B1A3-622D425B4366}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131956B8-36EC-4E9E-806A-55D603046EFD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE2530E-208A-490C-A97D-A1661AD96B31}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508863F6-1BE2-4238-ADCD-C1A8DC262672}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40AA50E-A3E9-4A59-8994-DC90C5A6C46E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/pyRevitnvn.tab/Training.panel/Training.pushbutton/Create_Grids.xlsx
+++ b/pyRevitnvn.tab/Training.panel/Training.pushbutton/Create_Grids.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit\Extensions\pyRevitnvn.extension\pyRevitnvn.tab\Training.panel\Training.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7AF15E-7AFE-42B9-98D6-463F815402DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F77D2DC-BFED-4650-8A5F-905970D2FF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
   <si>
     <t>Y1</t>
   </si>
@@ -118,10 +118,46 @@
     <t>Ocy</t>
   </si>
   <si>
-    <t>(10,0,0)</t>
-  </si>
-  <si>
-    <t>(0,10,0)</t>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>Y9</t>
+  </si>
+  <si>
+    <t>Y10</t>
+  </si>
+  <si>
+    <t>Y11</t>
+  </si>
+  <si>
+    <t>Y12</t>
+  </si>
+  <si>
+    <t>Y13</t>
+  </si>
+  <si>
+    <t>Y14</t>
+  </si>
+  <si>
+    <t>Y15</t>
+  </si>
+  <si>
+    <t>Y16</t>
+  </si>
+  <si>
+    <t>Y17</t>
+  </si>
+  <si>
+    <t>Y18</t>
+  </si>
+  <si>
+    <t>Y19</t>
+  </si>
+  <si>
+    <t>(2000,0,0)</t>
+  </si>
+  <si>
+    <t>(0,2000,0)</t>
   </si>
 </sst>
 </file>
@@ -537,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,14 +599,14 @@
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3"/>
     </row>
@@ -601,8 +637,8 @@
       <c r="B3" s="3">
         <v>0</v>
       </c>
-      <c r="C3" s="3">
-        <v>25000</v>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -610,8 +646,8 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
-        <v>65000</v>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -622,7 +658,7 @@
         <v>2000</v>
       </c>
       <c r="C4" s="3">
-        <v>25000</v>
+        <v>59000</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -630,8 +666,8 @@
       <c r="E4" s="3">
         <v>3000</v>
       </c>
-      <c r="F4" s="3">
-        <v>65000</v>
+      <c r="F4" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -641,8 +677,8 @@
       <c r="B5" s="3">
         <v>4000</v>
       </c>
-      <c r="C5" s="3">
-        <v>25000</v>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -650,8 +686,8 @@
       <c r="E5" s="3">
         <v>3000</v>
       </c>
-      <c r="F5" s="3">
-        <v>65000</v>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -661,8 +697,8 @@
       <c r="B6" s="3">
         <v>5000</v>
       </c>
-      <c r="C6" s="3">
-        <v>25000</v>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>22</v>
@@ -670,8 +706,8 @@
       <c r="E6" s="3">
         <v>3000</v>
       </c>
-      <c r="F6" s="3">
-        <v>65000</v>
+      <c r="F6" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -681,8 +717,8 @@
       <c r="B7" s="3">
         <v>4000</v>
       </c>
-      <c r="C7" s="3">
-        <v>25000</v>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>23</v>
@@ -690,8 +726,8 @@
       <c r="E7" s="3">
         <v>3000</v>
       </c>
-      <c r="F7" s="3">
-        <v>65000</v>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -701,8 +737,8 @@
       <c r="B8" s="3">
         <v>4000</v>
       </c>
-      <c r="C8" s="3">
-        <v>25000</v>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>24</v>
@@ -710,8 +746,8 @@
       <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="F8" s="3">
-        <v>65000</v>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -721,8 +757,8 @@
       <c r="B9" s="3">
         <v>4000</v>
       </c>
-      <c r="C9" s="3">
-        <v>25000</v>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>25</v>
@@ -730,8 +766,8 @@
       <c r="E9" s="3">
         <v>3000</v>
       </c>
-      <c r="F9" s="3">
-        <v>65000</v>
+      <c r="F9" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -741,8 +777,8 @@
       <c r="B10" s="3">
         <v>4000</v>
       </c>
-      <c r="C10" s="3">
-        <v>25000</v>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>29</v>
@@ -750,8 +786,8 @@
       <c r="E10" s="3">
         <v>3000</v>
       </c>
-      <c r="F10" s="3">
-        <v>65000</v>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -761,8 +797,17 @@
       <c r="B11" s="3">
         <v>4000</v>
       </c>
-      <c r="C11" s="3">
-        <v>25000</v>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3001</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -772,8 +817,17 @@
       <c r="B12" s="3">
         <v>4000</v>
       </c>
-      <c r="C12" s="3">
-        <v>25000</v>
+      <c r="C12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3002</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -783,8 +837,17 @@
       <c r="B13" s="3">
         <v>4000</v>
       </c>
-      <c r="C13" s="3">
-        <v>25000</v>
+      <c r="C13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3003</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -794,8 +857,17 @@
       <c r="B14" s="3">
         <v>4000</v>
       </c>
-      <c r="C14" s="3">
-        <v>25000</v>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3004</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -805,8 +877,17 @@
       <c r="B15" s="3">
         <v>4000</v>
       </c>
-      <c r="C15" s="3">
-        <v>25000</v>
+      <c r="C15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3005</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -816,30 +897,90 @@
       <c r="B16" s="3">
         <v>4000</v>
       </c>
-      <c r="C16" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3006</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="3">
         <v>4000</v>
       </c>
-      <c r="C17" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3007</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="3">
         <v>4000</v>
       </c>
-      <c r="C18" s="3">
-        <v>25000</v>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3008</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="3">
+        <v>3009</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="3">
+        <v>3010</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3011</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/pyRevitnvn.tab/Training.panel/Training.pushbutton/Create_Grids.xlsx
+++ b/pyRevitnvn.tab/Training.panel/Training.pushbutton/Create_Grids.xlsx
@@ -8,19 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhuan Tom\AppData\Roaming\pyRevit\Extensions\pyRevitnvn.extension\pyRevitnvn.tab\Training.panel\Training.pushbutton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F77D2DC-BFED-4650-8A5F-905970D2FF2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BB12B3-BB9C-4068-9963-49C53271292B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dsf" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Y1</t>
   </si>
@@ -28,13 +33,10 @@
     <t>Y2</t>
   </si>
   <si>
-    <t>Chieu_Dai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ky Hieu Truc </t>
-  </si>
-  <si>
-    <t>chieu dai</t>
+    <t>Origin_Coordx</t>
+  </si>
+  <si>
+    <t>Origin_Coordy</t>
   </si>
   <si>
     <t>Y3</t>
@@ -61,6 +63,21 @@
     <t>X4</t>
   </si>
   <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>(1000,0,0)</t>
+  </si>
+  <si>
+    <t>(0,1000,0)</t>
+  </si>
+  <si>
+    <t>Chieu Dai</t>
+  </si>
+  <si>
+    <t>Ky Hieu Truc Y</t>
+  </si>
+  <si>
     <t>X5</t>
   </si>
   <si>
@@ -70,27 +87,6 @@
     <t>X7</t>
   </si>
   <si>
-    <t>X8</t>
-  </si>
-  <si>
-    <t>X9</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>X11</t>
-  </si>
-  <si>
-    <t>X12</t>
-  </si>
-  <si>
-    <t>X13</t>
-  </si>
-  <si>
-    <t>Y4</t>
-  </si>
-  <si>
     <t>Y5</t>
   </si>
   <si>
@@ -100,64 +96,7 @@
     <t>Y7</t>
   </si>
   <si>
-    <t>X14</t>
-  </si>
-  <si>
-    <t>X15</t>
-  </si>
-  <si>
-    <t>X16</t>
-  </si>
-  <si>
-    <t>Y8</t>
-  </si>
-  <si>
-    <t>Ocx</t>
-  </si>
-  <si>
-    <t>Ocy</t>
-  </si>
-  <si>
     <t>auto</t>
-  </si>
-  <si>
-    <t>Y9</t>
-  </si>
-  <si>
-    <t>Y10</t>
-  </si>
-  <si>
-    <t>Y11</t>
-  </si>
-  <si>
-    <t>Y12</t>
-  </si>
-  <si>
-    <t>Y13</t>
-  </si>
-  <si>
-    <t>Y14</t>
-  </si>
-  <si>
-    <t>Y15</t>
-  </si>
-  <si>
-    <t>Y16</t>
-  </si>
-  <si>
-    <t>Y17</t>
-  </si>
-  <si>
-    <t>Y18</t>
-  </si>
-  <si>
-    <t>Y19</t>
-  </si>
-  <si>
-    <t>(2000,0,0)</t>
-  </si>
-  <si>
-    <t>(0,2000,0)</t>
   </si>
 </sst>
 </file>
@@ -573,72 +512,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.90625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -647,18 +586,18 @@
         <v>0</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3">
         <v>2000</v>
       </c>
-      <c r="C4" s="3">
-        <v>59000</v>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -667,320 +606,107 @@
         <v>3000</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>4000</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" s="3">
         <v>3000</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3">
+      <c r="E6" s="3">
         <v>5000</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" s="3">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="3">
-        <v>3001</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3002</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3">
-        <v>3003</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3">
-        <v>3004</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3">
-        <v>3005</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="3">
-        <v>3006</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3007</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3008</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="3">
-        <v>3009</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3010</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="3">
-        <v>3011</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -988,4 +714,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4022B2-BD19-4D78-B1A3-622D425B4366}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131956B8-36EC-4E9E-806A-55D603046EFD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE2530E-208A-490C-A97D-A1661AD96B31}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{508863F6-1BE2-4238-ADCD-C1A8DC262672}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40AA50E-A3E9-4A59-8994-DC90C5A6C46E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>